--- a/biology/Zoologie/Flamant_du_Chili/Flamant_du_Chili.xlsx
+++ b/biology/Zoologie/Flamant_du_Chili/Flamant_du_Chili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoenicopterus chilensis
 Le Flamant du Chili (Phoenicopterus chilensis) est une grande espèce (110 à 130 cm) d'oiseaux de la famille des Phoenicopteridae. C’est un proche parent du Flamant rose, avec lequel il est parfois considéré comme conspécifique.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre dans les régions tempérées d’Amérique du Sud, à partir de l'Équateur et du Pérou jusqu'au Chili et jusqu'à l'Argentine, en passant par l'Est du Brésil ; il y a des petites populations naturelles dans l'Utah et en Californie, aux États-Unis.
 D'autres spécimens en Europe se sont probablement échappés de captivité et ont formé des populations à la forêt de Zwillbrocker Venn, à la frontière de l'Allemagne et des Pays-Bas.
@@ -544,7 +558,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les flamants, il pond un unique œuf blanc crayeux sur un amas de boue.
 </t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son plumage est plus rose que chez la forme européenne du Flamant rose, mais plus clair que chez la forme américaine de ce dernier, le Flamant de Cuba. On peut l’en différencier par ses pattes grisâtres aux articulations roses, ainsi que par l’étendue plus grande du noir sur le bec (plus de la moitié).
 </t>
